--- a/tfgRequisitos.xlsx
+++ b/tfgRequisitos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jprieto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jprieto/TFG/wepsim/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>requisitos usuario</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>El formato del código ensamblador debe de cumplir el estándar de MIP32</t>
+  </si>
+  <si>
+    <t>REQUISITOS FUNCIONALES</t>
+  </si>
+  <si>
+    <t>REQUISITOS NO FUNCIONALES</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,6 +514,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
